--- a/Equipment Size, Stream Tables, Solutes Info/stream table NABEER.xlsx
+++ b/Equipment Size, Stream Tables, Solutes Info/stream table NABEER.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5817112240c0c948/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumya\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA5749A8-311C-45BB-9CA4-A8DF97D0B11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FA5749A8-311C-45BB-9CA4-A8DF97D0B11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FBF34C2-9BE3-40C9-949F-41C18ECA76F3}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="960" windowWidth="14550" windowHeight="14640" xr2:uid="{902E8129-377E-4200-9527-4DDE2ED6D044}"/>
+    <workbookView xWindow="14250" yWindow="960" windowWidth="14550" windowHeight="14640" activeTab="1" xr2:uid="{902E8129-377E-4200-9527-4DDE2ED6D044}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="time = 0" sheetId="1" r:id="rId1"/>
+    <sheet name="time =6167" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>Ethanol</t>
   </si>
@@ -51,9 +52,6 @@
     <t>split ratio</t>
   </si>
   <si>
-    <t>volume 6+8</t>
-  </si>
-  <si>
     <t>Ethanol permeate rate</t>
   </si>
   <si>
@@ -66,12 +64,6 @@
     <t>membrane 2</t>
   </si>
   <si>
-    <t>membrane area</t>
-  </si>
-  <si>
-    <t>cm2</t>
-  </si>
-  <si>
     <t>basis 1 second</t>
   </si>
   <si>
@@ -109,6 +101,24 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>volume 4+8</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>obtained from python simulation</t>
+  </si>
+  <si>
+    <t>feed solutes</t>
+  </si>
+  <si>
+    <t>feed ethanol</t>
+  </si>
+  <si>
+    <t>Feed water</t>
   </si>
 </sst>
 </file>
@@ -132,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,14 +170,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,24 +606,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679D219-28F4-4F72-B53C-D50F00EC4B94}">
-  <dimension ref="A3:L31"/>
+  <dimension ref="A3:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScale="51" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -504,180 +639,191 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>7</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>8</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <v>9</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>3.9460000000000002E-2</v>
-      </c>
-      <c r="E7">
-        <f>C7+D7</f>
-        <v>3.9460000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <f>E7*$H$14</f>
-        <v>1.9730000000000004E-3</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="9">
+        <f>E7-C7-L7</f>
+        <v>30.060000000000002</v>
+      </c>
+      <c r="E7" s="8">
+        <f>$E$10*$F$40</f>
+        <v>35.514000000000003</v>
+      </c>
+      <c r="F7" s="8">
+        <f>H15</f>
+        <v>14.25</v>
+      </c>
+      <c r="G7" s="8">
         <f>E7-F7</f>
-        <v>3.7486999999999999E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.02</v>
-      </c>
-      <c r="I7">
+        <v>21.264000000000003</v>
+      </c>
+      <c r="H7" s="8">
+        <f>G7*$H$14</f>
+        <v>1.0632000000000001</v>
+      </c>
+      <c r="I7" s="8">
         <f>G7-H7</f>
-        <v>1.7486999999999999E-2</v>
-      </c>
-      <c r="J7">
+        <v>20.200800000000001</v>
+      </c>
+      <c r="J7" s="8">
         <f>H17</f>
-        <v>0.01</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <f>K7+F7</f>
-        <v>4.0019729999999996</v>
+        <v>15.81</v>
+      </c>
+      <c r="K7" s="8">
+        <f>I7-J7</f>
+        <v>4.3908000000000005</v>
+      </c>
+      <c r="L7" s="10">
+        <f>K7+H7</f>
+        <v>5.4540000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <f>$H$13*997000</f>
-        <v>13.994952573700346</v>
-      </c>
-      <c r="D8">
-        <f>100-D7-D9</f>
-        <v>99.940539999999999</v>
-      </c>
-      <c r="E8">
-        <f>C8+D8</f>
-        <v>113.93549257370034</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F9" si="0">E8*$H$14</f>
-        <v>5.6967746286850174</v>
-      </c>
-      <c r="G8">
+        <v>1342.6029565182259</v>
+      </c>
+      <c r="D8" s="12">
+        <f>E8-C8-L8</f>
+        <v>-525.40695651822625</v>
+      </c>
+      <c r="E8" s="11">
+        <f>E10*F41</f>
+        <v>8665.2732000000015</v>
+      </c>
+      <c r="F8" s="11">
+        <f>H16</f>
+        <v>408.59800000000001</v>
+      </c>
+      <c r="G8" s="11">
         <f>E8-F8</f>
-        <v>108.23871794501532</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <f>G8-H8</f>
-        <v>103.23871794501532</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L9" si="1">K8+F8</f>
-        <v>12.696774628685016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8256.6752000000015</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" ref="H8:H9" si="0">G8*$H$14</f>
+        <v>412.8337600000001</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" ref="I8:I9" si="1">G8-H8</f>
+        <v>7843.8414400000011</v>
+      </c>
+      <c r="J8" s="11">
+        <f>H18</f>
+        <v>408.59800000000001</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" ref="K8:K9" si="2">I8-J8</f>
+        <v>7435.2434400000011</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" ref="L8:L9" si="3">K8+H8</f>
+        <v>7848.0772000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E9">
-        <f>C9+D9</f>
-        <v>0.02</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="15">
+        <f>E9-C9-L9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f>$E$10*$F$39</f>
+        <v>299.21280000000002</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>E9-F9</f>
+        <v>299.21280000000002</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G9">
-        <f>E9-F9</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="H9">
+        <v>14.960640000000001</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>284.25216</v>
+      </c>
+      <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="I9">
-        <f>G9-H9</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K8:K9" si="2">I9-J9</f>
-        <v>1.9E-2</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
+      <c r="K9" s="14">
+        <f t="shared" si="2"/>
+        <v>284.25216</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="3"/>
+        <v>299.21280000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <f>F26+G26</f>
-        <v>1.4037063764995332E-5</v>
+        <v>1.3466428851737471E-3</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -690,66 +836,68 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>14.25</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>2E-3</v>
+        <v>408.59800000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>0.01</v>
+        <v>15.81</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>408.59800000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
       <c r="F22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>8</v>
@@ -757,39 +905,39 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23">
-        <f>H7/802000</f>
-        <v>2.4937655860349126E-8</v>
+        <f>F7/802000</f>
+        <v>1.7768079800498752E-5</v>
       </c>
       <c r="G23">
         <f>J8/802400</f>
-        <v>4.9850448654037884E-6</v>
+        <v>5.0921984047856434E-4</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
       <c r="F24">
-        <f>H8/997000</f>
-        <v>5.0150451354062186E-6</v>
+        <f>F8/997000</f>
+        <v>4.0982748244734204E-4</v>
       </c>
       <c r="G24">
         <f>J8/997000</f>
-        <v>4.0120361083249752E-6</v>
+        <v>4.0982748244734204E-4</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -800,43 +948,509 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <f>SUM(F23:F25)</f>
-        <v>5.039982791266568E-6</v>
+        <v>4.275955622478408E-4</v>
       </c>
       <c r="G26">
         <f>SUM(G23:G25)</f>
-        <v>8.9970809737287636E-6</v>
+        <v>9.1904732292590638E-4</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F30">
         <v>802.4</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>997</v>
       </c>
       <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <f>12.4672*10000/375</f>
+        <v>332.45866666666666</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39" si="4">E39/1000</f>
+        <v>0.33245866666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <f>0.03946*1000</f>
+        <v>39.46</v>
+      </c>
+      <c r="F40">
+        <f>E40/1000</f>
+        <v>3.9460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <f>10000-E40-E39</f>
+        <v>9628.0813333333335</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="5">E41/1000</f>
+        <v>9.6280813333333342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B83C8-1203-428B-AC55-6DD7D62FDB4F}">
+  <dimension ref="A3:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <f>E7-C7-L7</f>
+        <v>3.0243856999999998</v>
+      </c>
+      <c r="E7" s="8">
+        <f>$E$10*$F$40</f>
+        <v>3.5549729999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <f>H15</f>
+        <v>1.4514857000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f>E7-F7</f>
+        <v>2.1034872999999998</v>
+      </c>
+      <c r="H7" s="8">
+        <f>G7*$H$14</f>
+        <v>0.10517436499999999</v>
+      </c>
+      <c r="I7" s="8">
+        <f>G7-H7</f>
+        <v>1.998312935</v>
+      </c>
+      <c r="J7" s="8">
+        <f>H17</f>
+        <v>1.5729</v>
+      </c>
+      <c r="K7" s="8">
+        <f>I7-J7</f>
+        <v>0.42541293499999999</v>
+      </c>
+      <c r="L7" s="10">
+        <f>K7+H7</f>
+        <v>0.53058729999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <f>$H$13*997000</f>
+        <v>1326.6925840031388</v>
+      </c>
+      <c r="D8" s="12">
+        <f>E8-C8-L8</f>
+        <v>-509.49658400313876</v>
+      </c>
+      <c r="E8" s="11">
+        <f>E10*F41</f>
+        <v>866.56502699999999</v>
+      </c>
+      <c r="F8" s="11">
+        <f>H16</f>
+        <v>408.59800000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <f>E8-F8</f>
+        <v>457.96702699999997</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" ref="H8:H9" si="0">G8*$H$14</f>
+        <v>22.898351349999999</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" ref="I8:I9" si="1">G8-H8</f>
+        <v>435.06867564999999</v>
+      </c>
+      <c r="J8" s="11">
+        <f>H18</f>
+        <v>408.59800000000001</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" ref="K8:K9" si="2">I8-J8</f>
+        <v>26.470675649999976</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" ref="L8:L9" si="3">K8+H8</f>
+        <v>49.369026999999974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <f>E9-C9-L9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f>$E$10*$F$39</f>
+        <v>29.88</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>E9-F9</f>
+        <v>29.88</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.494</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>28.385999999999999</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="2"/>
+        <v>28.385999999999999</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="3"/>
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <f>F26+G26</f>
+        <v>1.3306846379168894E-3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.4514857000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>408.59800000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.5729</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>408.59800000000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>F7/802000</f>
+        <v>1.809832543640898E-6</v>
+      </c>
+      <c r="G23">
+        <f>J8/802400</f>
+        <v>5.0921984047856434E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f>F8/997000</f>
+        <v>4.0982748244734204E-4</v>
+      </c>
+      <c r="G24">
+        <f>J8/997000</f>
+        <v>4.0982748244734204E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F23:F25)</f>
+        <v>4.1163731499098291E-4</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G23:G25)</f>
+        <v>9.1904732292590638E-4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>802.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>997</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>3.32</v>
+      </c>
+      <c r="F39">
+        <f>E39/100</f>
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <f>0.00394997*100</f>
+        <v>0.39499699999999999</v>
+      </c>
+      <c r="F40">
+        <f>E40/100</f>
+        <v>3.9499699999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <f>100-E40-E39</f>
+        <v>96.285003000000003</v>
+      </c>
+      <c r="F41">
+        <f>E41/100</f>
+        <v>0.96285003000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1031,18 +1645,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,14 +1679,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5999BF9-8FA3-461F-AF70-A5CBD70059D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE420947-E82C-44D4-9586-9CD1CA91B220}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="dcd3136c-638f-4341-9ade-e46389e4a53d"/>
@@ -1087,4 +1693,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5999BF9-8FA3-461F-AF70-A5CBD70059D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Equipment Size, Stream Tables, Solutes Info/stream table NABEER.xlsx
+++ b/Equipment Size, Stream Tables, Solutes Info/stream table NABEER.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumya\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5817112240c0c948/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FA5749A8-311C-45BB-9CA4-A8DF97D0B11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FBF34C2-9BE3-40C9-949F-41C18ECA76F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{159387DC-EC81-4A24-A164-C140309E708A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="960" windowWidth="14550" windowHeight="14640" activeTab="1" xr2:uid="{902E8129-377E-4200-9527-4DDE2ED6D044}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{902E8129-377E-4200-9527-4DDE2ED6D044}"/>
   </bookViews>
   <sheets>
     <sheet name="time = 0" sheetId="1" r:id="rId1"/>
-    <sheet name="time =6167" sheetId="3" r:id="rId2"/>
+    <sheet name="time =5763" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>Ethanol</t>
   </si>
@@ -119,13 +119,97 @@
   </si>
   <si>
     <t>Feed water</t>
+  </si>
+  <si>
+    <t>mass flow rates</t>
+  </si>
+  <si>
+    <t>molar flow rates</t>
+  </si>
+  <si>
+    <t>molar mass pof solutes</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>mol/s</t>
+  </si>
+  <si>
+    <t>in kg/hr</t>
+  </si>
+  <si>
+    <t>kmol/hr</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Liquid fraction</t>
+  </si>
+  <si>
+    <t>kg/hr</t>
+  </si>
+  <si>
+    <t>Stream #</t>
+  </si>
+  <si>
+    <t>Pressure (psi)</t>
+  </si>
+  <si>
+    <t>Tempreature (°C)</t>
+  </si>
+  <si>
+    <t>membrane area =  909000 cm2</t>
+  </si>
+  <si>
+    <t>batch feed =  1815000 g</t>
+  </si>
+  <si>
+    <t>flow out of tank =  1400 g/s</t>
+  </si>
+  <si>
+    <t>Product in BPY =  69994.74619859419</t>
+  </si>
+  <si>
+    <t>time for a batch =  5763 s</t>
+  </si>
+  <si>
+    <t>initial mass flow rates (g/s):  [996.41121519] [582.29713058] [403.58878481] [404.14997246] [807.73875727]</t>
+  </si>
+  <si>
+    <t>endpoint mass flow rates (g/s):  [1008.88170427] [607.62091611] [391.11829573] [391.17197112] [782.29026685]</t>
+  </si>
+  <si>
+    <t>t = 0: permeate 1 water =  389.73375</t>
+  </si>
+  <si>
+    <t>t = 0: permeate 1 ethanol =  [13.85503481]</t>
+  </si>
+  <si>
+    <t>t = 0: permeate 2 water =  389.73375</t>
+  </si>
+  <si>
+    <t>t = 0: permeate 2 ethanol =  [14.41622246]</t>
+  </si>
+  <si>
+    <t>t = final: permeate 1 water =  389.73375</t>
+  </si>
+  <si>
+    <t>t = final: permeate 1 ethanol =  [1.38454573]</t>
+  </si>
+  <si>
+    <t>t = final: permeate 2 water =  389.73375</t>
+  </si>
+  <si>
+    <t>t = final: permeate 2 ethanol =  [1.43822112]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +225,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -267,11 +363,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -292,6 +570,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2679D219-28F4-4F72-B53C-D50F00EC4B94}">
   <dimension ref="A3:L41"/>
   <sheetViews>
-    <sheetView zoomScale="51" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="B4" zoomScale="51" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B83C8-1203-428B-AC55-6DD7D62FDB4F}">
-  <dimension ref="A3:L41"/>
+  <dimension ref="A3:AJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="62" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39:AJ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,14 +1365,26 @@
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1067,8 +1392,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -1099,8 +1431,38 @@
       <c r="L6" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>2</v>
+      </c>
+      <c r="W6" s="6">
+        <v>3</v>
+      </c>
+      <c r="X6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>0</v>
       </c>
@@ -1109,87 +1471,173 @@
       </c>
       <c r="D7" s="9">
         <f>E7-C7-L7</f>
-        <v>3.0243856999999998</v>
+        <v>2.8100000000000023</v>
       </c>
       <c r="E7" s="8">
         <f>$E$10*$F$40</f>
-        <v>3.5549729999999999</v>
+        <v>35.549729999999997</v>
       </c>
       <c r="F7" s="8">
         <f>H15</f>
-        <v>1.4514857000000001</v>
+        <v>1.38</v>
       </c>
       <c r="G7" s="8">
         <f>E7-F7</f>
-        <v>2.1034872999999998</v>
+        <v>34.169729999999994</v>
       </c>
       <c r="H7" s="8">
         <f>G7*$H$14</f>
-        <v>0.10517436499999999</v>
+        <v>1.7084864999999998</v>
       </c>
       <c r="I7" s="8">
         <f>G7-H7</f>
-        <v>1.998312935</v>
+        <v>32.461243499999995</v>
       </c>
       <c r="J7" s="8">
         <f>H17</f>
-        <v>1.5729</v>
+        <v>1.43</v>
       </c>
       <c r="K7" s="8">
         <f>I7-J7</f>
-        <v>0.42541293499999999</v>
+        <v>31.031243499999995</v>
       </c>
       <c r="L7" s="10">
         <f>K7+H7</f>
-        <v>0.53058729999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32.739729999999994</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="23">
+        <f>C7*3600/1000</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="24">
+        <f t="shared" ref="V7:V9" si="0">D7*3600/1000</f>
+        <v>10.116000000000007</v>
+      </c>
+      <c r="W7" s="24">
+        <f t="shared" ref="W7:W9" si="1">E7*3600/1000</f>
+        <v>127.97902799999999</v>
+      </c>
+      <c r="X7" s="24">
+        <f t="shared" ref="X7:X9" si="2">F7*3600/1000</f>
+        <v>4.968</v>
+      </c>
+      <c r="Y7" s="24">
+        <f t="shared" ref="Y7:Y9" si="3">G7*3600/1000</f>
+        <v>123.01102799999998</v>
+      </c>
+      <c r="Z7" s="24">
+        <f t="shared" ref="Z7:Z9" si="4">H7*3600/1000</f>
+        <v>6.1505513999999994</v>
+      </c>
+      <c r="AA7" s="24">
+        <f t="shared" ref="AA7:AA9" si="5">I7*3600/1000</f>
+        <v>116.86047659999998</v>
+      </c>
+      <c r="AB7" s="24">
+        <f t="shared" ref="AB7:AB9" si="6">J7*3600/1000</f>
+        <v>5.1479999999999997</v>
+      </c>
+      <c r="AC7" s="24">
+        <f t="shared" ref="AC7:AC9" si="7">K7*3600/1000</f>
+        <v>111.71247659999997</v>
+      </c>
+      <c r="AD7" s="25">
+        <f t="shared" ref="AD7:AD9" si="8">L7*3600/1000</f>
+        <v>117.86302799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="11">
         <f>$H$13*997000</f>
-        <v>1326.6925840031388</v>
+        <v>1265.4335314238083</v>
       </c>
       <c r="D8" s="12">
         <f>E8-C8-L8</f>
-        <v>-509.49658400313876</v>
+        <v>-485.96753142380828</v>
       </c>
       <c r="E8" s="11">
         <f>E10*F41</f>
-        <v>866.56502699999999</v>
+        <v>834.57027000000016</v>
       </c>
       <c r="F8" s="11">
         <f>H16</f>
-        <v>408.59800000000001</v>
+        <v>389.733</v>
       </c>
       <c r="G8" s="11">
         <f>E8-F8</f>
-        <v>457.96702699999997</v>
+        <v>444.83727000000016</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" ref="H8:H9" si="0">G8*$H$14</f>
-        <v>22.898351349999999</v>
+        <f t="shared" ref="H8:H9" si="9">G8*$H$14</f>
+        <v>22.241863500000008</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" ref="I8:I9" si="1">G8-H8</f>
-        <v>435.06867564999999</v>
+        <f t="shared" ref="I8:I9" si="10">G8-H8</f>
+        <v>422.59540650000014</v>
       </c>
       <c r="J8" s="11">
         <f>H18</f>
-        <v>408.59800000000001</v>
+        <v>389.733</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" ref="K8:K9" si="2">I8-J8</f>
-        <v>26.470675649999976</v>
+        <f t="shared" ref="K8:K9" si="11">I8-J8</f>
+        <v>32.862406500000134</v>
       </c>
       <c r="L8" s="13">
-        <f t="shared" ref="L8:L9" si="3">K8+H8</f>
-        <v>49.369026999999974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L8:L9" si="12">K8+H8</f>
+        <v>55.104270000000142</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="26">
+        <f t="shared" ref="U8:U9" si="13">C8*3600/1000</f>
+        <v>4555.5607131257093</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="0"/>
+        <v>-1749.4831131257099</v>
+      </c>
+      <c r="W8" s="8">
+        <f t="shared" si="1"/>
+        <v>3004.4529720000005</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" si="2"/>
+        <v>1403.0388</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="3"/>
+        <v>1601.4141720000005</v>
+      </c>
+      <c r="Z8" s="8">
+        <f t="shared" si="4"/>
+        <v>80.070708600000032</v>
+      </c>
+      <c r="AA8" s="8">
+        <f t="shared" si="5"/>
+        <v>1521.3434634000005</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="6"/>
+        <v>1403.0388</v>
+      </c>
+      <c r="AC8" s="8">
+        <f t="shared" si="7"/>
+        <v>118.30466340000048</v>
+      </c>
+      <c r="AD8" s="27">
+        <f t="shared" si="8"/>
+        <v>198.37537200000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1215,46 +1663,132 @@
         <v>29.88</v>
       </c>
       <c r="H9" s="14">
+        <f t="shared" si="9"/>
+        <v>1.494</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="10"/>
+        <v>28.385999999999999</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="11"/>
+        <v>28.385999999999999</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="12"/>
+        <v>29.88</v>
+      </c>
+      <c r="T9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="29">
         <f t="shared" si="0"/>
-        <v>1.494</v>
-      </c>
-      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
         <f t="shared" si="1"/>
-        <v>28.385999999999999</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
+        <v>107.568</v>
+      </c>
+      <c r="X9" s="29">
         <f t="shared" si="2"/>
-        <v>28.385999999999999</v>
-      </c>
-      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="29">
         <f t="shared" si="3"/>
-        <v>29.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>107.568</v>
+      </c>
+      <c r="Z9" s="29">
+        <f t="shared" si="4"/>
+        <v>5.3784000000000001</v>
+      </c>
+      <c r="AA9" s="29">
+        <f t="shared" si="5"/>
+        <v>102.18959999999998</v>
+      </c>
+      <c r="AB9" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="29">
+        <f t="shared" si="7"/>
+        <v>102.18959999999998</v>
+      </c>
+      <c r="AD9" s="30">
+        <f t="shared" si="8"/>
+        <v>107.568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="E10">
         <v>900</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="T10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10">
+        <f>SUM(U7:U9)</f>
+        <v>4555.5607131257093</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:AD10" si="14">SUM(V7:V9)</f>
+        <v>-1739.3671131257099</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="14"/>
+        <v>3240.0000000000009</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="14"/>
+        <v>1408.0068000000001</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="14"/>
+        <v>1831.9932000000003</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="14"/>
+        <v>91.599660000000029</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="14"/>
+        <v>1740.3935400000005</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="14"/>
+        <v>1408.1867999999999</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="14"/>
+        <v>332.20674000000042</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="14"/>
+        <v>423.80640000000045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>23</v>
       </c>
       <c r="H13">
         <f>F26+G26</f>
-        <v>1.3306846379168894E-3</v>
+        <v>1.2692412551893765E-3</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1796,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="2">
-        <v>1.4514857000000001</v>
+        <v>1.38</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1278,13 +1812,22 @@
       <c r="J15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15">
+        <v>167.27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>408.59800000000001</v>
+        <v>389.733</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1298,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>1.5729</v>
+        <v>1.43</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1309,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="2">
-        <v>408.59800000000001</v>
+        <v>389.733</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1340,11 +1883,11 @@
       </c>
       <c r="F23">
         <f>F7/802000</f>
-        <v>1.809832543640898E-6</v>
+        <v>1.7206982543640896E-6</v>
       </c>
       <c r="G23">
         <f>J8/802400</f>
-        <v>5.0921984047856434E-4</v>
+        <v>4.8570912263210371E-4</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1356,11 +1899,11 @@
       </c>
       <c r="F24">
         <f>F8/997000</f>
-        <v>4.0982748244734204E-4</v>
+        <v>3.9090571715145436E-4</v>
       </c>
       <c r="G24">
         <f>J8/997000</f>
-        <v>4.0982748244734204E-4</v>
+        <v>3.9090571715145436E-4</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1380,11 +1923,11 @@
       </c>
       <c r="F26">
         <f>SUM(F23:F25)</f>
-        <v>4.1163731499098291E-4</v>
+        <v>3.9262641540581845E-4</v>
       </c>
       <c r="G26">
         <f>SUM(G23:G25)</f>
-        <v>9.1904732292590638E-4</v>
+        <v>8.7661483978355808E-4</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1415,7 +1958,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f>900*0.039</f>
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+    </row>
+    <row r="39" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>26</v>
       </c>
@@ -1426,32 +1988,1116 @@
         <f>E39/100</f>
         <v>3.32E-2</v>
       </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="S39" s="13"/>
+      <c r="T39" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="37">
+        <v>1</v>
+      </c>
+      <c r="V39" s="37">
+        <v>2</v>
+      </c>
+      <c r="W39" s="37">
+        <v>3</v>
+      </c>
+      <c r="X39" s="37">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="37">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="37">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="37">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="37">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="37">
+        <v>9</v>
+      </c>
+      <c r="AD39" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF39" s="37">
+        <v>6</v>
+      </c>
+      <c r="AG39" s="37">
+        <v>7</v>
+      </c>
+      <c r="AH39" s="37">
+        <v>8</v>
+      </c>
+      <c r="AI39" s="37">
+        <v>9</v>
+      </c>
+      <c r="AJ39" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <f>0.00394997*100</f>
-        <v>0.39499699999999999</v>
+        <f>0.0394997*100</f>
+        <v>3.94997</v>
       </c>
       <c r="F40">
         <f>E40/100</f>
-        <v>3.9499699999999997E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+        <v>3.9499699999999999E-2</v>
+      </c>
+      <c r="S40" s="13"/>
+      <c r="T40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31">
+        <v>40</v>
+      </c>
+      <c r="X40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="Y40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="Z40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="AA40" s="31">
+        <v>40</v>
+      </c>
+      <c r="AB40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="AC40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="AD40" s="34">
+        <v>14.7</v>
+      </c>
+      <c r="AE40" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="AG40" s="31">
+        <v>40</v>
+      </c>
+      <c r="AH40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="AI40" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="AJ40" s="34">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41">
         <f>100-E40-E39</f>
-        <v>96.285003000000003</v>
+        <v>92.730030000000014</v>
       </c>
       <c r="F41">
         <f>E41/100</f>
-        <v>0.96285003000000002</v>
-      </c>
+        <v>0.92730030000000019</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="31">
+        <v>5</v>
+      </c>
+      <c r="V41" s="31">
+        <v>5</v>
+      </c>
+      <c r="W41" s="31">
+        <v>5</v>
+      </c>
+      <c r="X41" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="31">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="35">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AI41" s="31">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f>SUM(F39:F41)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="S42" s="13"/>
+      <c r="T42" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" s="31">
+        <v>1</v>
+      </c>
+      <c r="V42" s="31">
+        <v>1</v>
+      </c>
+      <c r="W42" s="31">
+        <v>1</v>
+      </c>
+      <c r="X42" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="13"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="31"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
+      <c r="AJ43" s="36"/>
+    </row>
+    <row r="44" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="V44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="42"/>
+      <c r="AH44" s="42"/>
+      <c r="AI44" s="42"/>
+      <c r="AJ44" s="43"/>
+    </row>
+    <row r="45" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6">
+        <v>4</v>
+      </c>
+      <c r="G45" s="6">
+        <v>5</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6</v>
+      </c>
+      <c r="I45" s="6">
+        <v>7</v>
+      </c>
+      <c r="J45" s="6">
+        <v>8</v>
+      </c>
+      <c r="K45" s="6">
+        <v>9</v>
+      </c>
+      <c r="L45" s="7">
+        <v>10</v>
+      </c>
+      <c r="T45" s="32"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="35"/>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8">
+        <f>C7/46.07</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" ref="D46:L46" si="15">D7/46.07</f>
+        <v>6.0994139353158283E-2</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="15"/>
+        <v>0.77164597351855868</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="15"/>
+        <v>2.9954417191230733E-2</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="15"/>
+        <v>0.74169155632732786</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="15"/>
+        <v>3.7084577816366392E-2</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="15"/>
+        <v>0.70460697851096143</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="15"/>
+        <v>3.1039722161927501E-2</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="15"/>
+        <v>0.67356725634903392</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="15"/>
+        <v>0.71065183416540034</v>
+      </c>
+      <c r="T46" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="45">
+        <f>U7/46.07</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="45">
+        <f t="shared" ref="V46:AD46" si="16">V7/46.07</f>
+        <v>0.21957890167136981</v>
+      </c>
+      <c r="W46" s="45">
+        <f t="shared" si="16"/>
+        <v>2.7779255046668112</v>
+      </c>
+      <c r="X46" s="45">
+        <f t="shared" si="16"/>
+        <v>0.10783590188843065</v>
+      </c>
+      <c r="Y46" s="45">
+        <f t="shared" si="16"/>
+        <v>2.6700896027783805</v>
+      </c>
+      <c r="Z46" s="45">
+        <f t="shared" si="16"/>
+        <v>0.13350448013891902</v>
+      </c>
+      <c r="AA46" s="45">
+        <f t="shared" si="16"/>
+        <v>2.5365851226394613</v>
+      </c>
+      <c r="AB46" s="45">
+        <f t="shared" si="16"/>
+        <v>0.111742999782939</v>
+      </c>
+      <c r="AC46" s="45">
+        <f t="shared" si="16"/>
+        <v>2.4248421228565222</v>
+      </c>
+      <c r="AD46" s="46">
+        <f t="shared" si="16"/>
+        <v>2.5583466029954409</v>
+      </c>
+      <c r="AE46" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="45">
+        <f t="shared" ref="AF46:AJ49" si="17">Z46</f>
+        <v>0.13350448013891902</v>
+      </c>
+      <c r="AG46" s="45">
+        <f t="shared" si="17"/>
+        <v>2.5365851226394613</v>
+      </c>
+      <c r="AH46" s="45">
+        <f t="shared" si="17"/>
+        <v>0.111742999782939</v>
+      </c>
+      <c r="AI46" s="45">
+        <f t="shared" si="17"/>
+        <v>2.4248421228565222</v>
+      </c>
+      <c r="AJ46" s="46">
+        <f t="shared" si="17"/>
+        <v>2.5583466029954409</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11">
+        <f>C8/18.02</f>
+        <v>70.223836372020443</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" ref="D47:L47" si="18">D8/18.02</f>
+        <v>-26.96823148855762</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="18"/>
+        <v>46.313555493895684</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="18"/>
+        <v>21.627802441731411</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="18"/>
+        <v>24.685753052164273</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="18"/>
+        <v>1.2342876526082136</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="18"/>
+        <v>23.451465399556056</v>
+      </c>
+      <c r="J47" s="11">
+        <f t="shared" si="18"/>
+        <v>21.627802441731411</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="18"/>
+        <v>1.8236629578246468</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="18"/>
+        <v>3.0579506104328602</v>
+      </c>
+      <c r="T47" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U47" s="45">
+        <f>U8/18.02</f>
+        <v>252.80581093927356</v>
+      </c>
+      <c r="V47" s="45">
+        <f t="shared" ref="V47:AD47" si="19">V8/18.02</f>
+        <v>-97.085633358807428</v>
+      </c>
+      <c r="W47" s="45">
+        <f t="shared" si="19"/>
+        <v>166.72879977802444</v>
+      </c>
+      <c r="X47" s="45">
+        <f t="shared" si="19"/>
+        <v>77.860088790233078</v>
+      </c>
+      <c r="Y47" s="45">
+        <f t="shared" si="19"/>
+        <v>88.868710987791374</v>
+      </c>
+      <c r="Z47" s="45">
+        <f t="shared" si="19"/>
+        <v>4.4434355493895694</v>
+      </c>
+      <c r="AA47" s="45">
+        <f t="shared" si="19"/>
+        <v>84.425275438401798</v>
+      </c>
+      <c r="AB47" s="45">
+        <f t="shared" si="19"/>
+        <v>77.860088790233078</v>
+      </c>
+      <c r="AC47" s="45">
+        <f t="shared" si="19"/>
+        <v>6.5651866481687282</v>
+      </c>
+      <c r="AD47" s="46">
+        <f t="shared" si="19"/>
+        <v>11.008622197558298</v>
+      </c>
+      <c r="AE47" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="45">
+        <f t="shared" si="17"/>
+        <v>4.4434355493895694</v>
+      </c>
+      <c r="AG47" s="45">
+        <f t="shared" si="17"/>
+        <v>84.425275438401798</v>
+      </c>
+      <c r="AH47" s="45">
+        <f t="shared" si="17"/>
+        <v>77.860088790233078</v>
+      </c>
+      <c r="AI47" s="45">
+        <f t="shared" si="17"/>
+        <v>6.5651866481687282</v>
+      </c>
+      <c r="AJ47" s="46">
+        <f t="shared" si="17"/>
+        <v>11.008622197558298</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="14">
+        <f>C9/$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" ref="D48:L48" si="20">D9/$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17863334728283611</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17863334728283611</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="20"/>
+        <v>8.931667364141806E-3</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="20"/>
+        <v>0.16970167991869431</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="20"/>
+        <v>0.16970167991869431</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17863334728283611</v>
+      </c>
+      <c r="T48" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="47">
+        <f>U9/$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="47">
+        <f t="shared" ref="V48:AD48" si="21">V9/$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="47">
+        <f t="shared" si="21"/>
+        <v>0.64308005021821002</v>
+      </c>
+      <c r="X48" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="47">
+        <f t="shared" si="21"/>
+        <v>0.64308005021821002</v>
+      </c>
+      <c r="Z48" s="47">
+        <f t="shared" si="21"/>
+        <v>3.2154002510910502E-2</v>
+      </c>
+      <c r="AA48" s="47">
+        <f t="shared" si="21"/>
+        <v>0.61092604770729941</v>
+      </c>
+      <c r="AB48" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="47">
+        <f t="shared" si="21"/>
+        <v>0.61092604770729941</v>
+      </c>
+      <c r="AD48" s="48">
+        <f t="shared" si="21"/>
+        <v>0.64308005021821002</v>
+      </c>
+      <c r="AE48" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF48" s="45">
+        <f t="shared" si="17"/>
+        <v>3.2154002510910502E-2</v>
+      </c>
+      <c r="AG48" s="45">
+        <f t="shared" si="17"/>
+        <v>0.61092604770729941</v>
+      </c>
+      <c r="AH48" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="45">
+        <f t="shared" si="17"/>
+        <v>0.61092604770729941</v>
+      </c>
+      <c r="AJ48" s="46">
+        <f t="shared" si="17"/>
+        <v>0.64308005021821002</v>
+      </c>
+    </row>
+    <row r="49" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T49" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" s="49">
+        <f>SUM(U46:U48)</f>
+        <v>252.80581093927356</v>
+      </c>
+      <c r="V49" s="49">
+        <f t="shared" ref="V49:AD49" si="22">SUM(V46:V48)</f>
+        <v>-96.866054457136059</v>
+      </c>
+      <c r="W49" s="49">
+        <f t="shared" si="22"/>
+        <v>170.14980533290947</v>
+      </c>
+      <c r="X49" s="49">
+        <f t="shared" si="22"/>
+        <v>77.967924692121514</v>
+      </c>
+      <c r="Y49" s="49">
+        <f t="shared" si="22"/>
+        <v>92.181880640787966</v>
+      </c>
+      <c r="Z49" s="49">
+        <f t="shared" si="22"/>
+        <v>4.6090940320393994</v>
+      </c>
+      <c r="AA49" s="49">
+        <f t="shared" si="22"/>
+        <v>87.572786608748558</v>
+      </c>
+      <c r="AB49" s="49">
+        <f t="shared" si="22"/>
+        <v>77.971831790016012</v>
+      </c>
+      <c r="AC49" s="49">
+        <f t="shared" si="22"/>
+        <v>9.60095481873255</v>
+      </c>
+      <c r="AD49" s="50">
+        <f t="shared" si="22"/>
+        <v>14.210048850771948</v>
+      </c>
+      <c r="AE49" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF49" s="45">
+        <f t="shared" si="17"/>
+        <v>4.6090940320393994</v>
+      </c>
+      <c r="AG49" s="45">
+        <f t="shared" si="17"/>
+        <v>87.572786608748558</v>
+      </c>
+      <c r="AH49" s="45">
+        <f t="shared" si="17"/>
+        <v>77.971831790016012</v>
+      </c>
+      <c r="AI49" s="45">
+        <f t="shared" si="17"/>
+        <v>9.60095481873255</v>
+      </c>
+      <c r="AJ49" s="46">
+        <f t="shared" si="17"/>
+        <v>14.210048850771948</v>
+      </c>
+    </row>
+    <row r="50" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T50" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="V50" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="42"/>
+      <c r="AD50" s="43"/>
+      <c r="AE50" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="42"/>
+      <c r="AH50" s="42"/>
+      <c r="AI50" s="42"/>
+      <c r="AJ50" s="43"/>
+    </row>
+    <row r="51" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="T51" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" s="45">
+        <f>U7</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="45">
+        <f t="shared" ref="V51:AD51" si="23">V7</f>
+        <v>10.116000000000007</v>
+      </c>
+      <c r="W51" s="45">
+        <f t="shared" si="23"/>
+        <v>127.97902799999999</v>
+      </c>
+      <c r="X51" s="45">
+        <f t="shared" si="23"/>
+        <v>4.968</v>
+      </c>
+      <c r="Y51" s="45">
+        <f t="shared" si="23"/>
+        <v>123.01102799999998</v>
+      </c>
+      <c r="Z51" s="45">
+        <f t="shared" si="23"/>
+        <v>6.1505513999999994</v>
+      </c>
+      <c r="AA51" s="45">
+        <f t="shared" si="23"/>
+        <v>116.86047659999998</v>
+      </c>
+      <c r="AB51" s="45">
+        <f t="shared" si="23"/>
+        <v>5.1479999999999997</v>
+      </c>
+      <c r="AC51" s="45">
+        <f t="shared" si="23"/>
+        <v>111.71247659999997</v>
+      </c>
+      <c r="AD51" s="54">
+        <f t="shared" si="23"/>
+        <v>117.86302799999997</v>
+      </c>
+      <c r="AE51" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="45">
+        <f t="shared" ref="AF51:AJ54" si="24">Z51</f>
+        <v>6.1505513999999994</v>
+      </c>
+      <c r="AG51" s="45">
+        <f t="shared" si="24"/>
+        <v>116.86047659999998</v>
+      </c>
+      <c r="AH51" s="45">
+        <f t="shared" si="24"/>
+        <v>5.1479999999999997</v>
+      </c>
+      <c r="AI51" s="45">
+        <f t="shared" si="24"/>
+        <v>111.71247659999997</v>
+      </c>
+      <c r="AJ51" s="46">
+        <f t="shared" si="24"/>
+        <v>117.86302799999997</v>
+      </c>
+    </row>
+    <row r="52" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="T52" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="U52" s="45">
+        <f t="shared" ref="U52:AD52" si="25">U8</f>
+        <v>4555.5607131257093</v>
+      </c>
+      <c r="V52" s="45">
+        <f t="shared" si="25"/>
+        <v>-1749.4831131257099</v>
+      </c>
+      <c r="W52" s="45">
+        <f t="shared" si="25"/>
+        <v>3004.4529720000005</v>
+      </c>
+      <c r="X52" s="45">
+        <f t="shared" si="25"/>
+        <v>1403.0388</v>
+      </c>
+      <c r="Y52" s="45">
+        <f t="shared" si="25"/>
+        <v>1601.4141720000005</v>
+      </c>
+      <c r="Z52" s="45">
+        <f t="shared" si="25"/>
+        <v>80.070708600000032</v>
+      </c>
+      <c r="AA52" s="45">
+        <f t="shared" si="25"/>
+        <v>1521.3434634000005</v>
+      </c>
+      <c r="AB52" s="45">
+        <f t="shared" si="25"/>
+        <v>1403.0388</v>
+      </c>
+      <c r="AC52" s="45">
+        <f t="shared" si="25"/>
+        <v>118.30466340000048</v>
+      </c>
+      <c r="AD52" s="46">
+        <f t="shared" si="25"/>
+        <v>198.37537200000051</v>
+      </c>
+      <c r="AE52" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="45">
+        <f t="shared" si="24"/>
+        <v>80.070708600000032</v>
+      </c>
+      <c r="AG52" s="45">
+        <f t="shared" si="24"/>
+        <v>1521.3434634000005</v>
+      </c>
+      <c r="AH52" s="45">
+        <f t="shared" si="24"/>
+        <v>1403.0388</v>
+      </c>
+      <c r="AI52" s="45">
+        <f t="shared" si="24"/>
+        <v>118.30466340000048</v>
+      </c>
+      <c r="AJ52" s="46">
+        <f t="shared" si="24"/>
+        <v>198.37537200000051</v>
+      </c>
+    </row>
+    <row r="53" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T53" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="U53" s="45">
+        <f t="shared" ref="U53:AD53" si="26">U9</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="45">
+        <f t="shared" si="26"/>
+        <v>107.568</v>
+      </c>
+      <c r="X53" s="45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="45">
+        <f t="shared" si="26"/>
+        <v>107.568</v>
+      </c>
+      <c r="Z53" s="45">
+        <f t="shared" si="26"/>
+        <v>5.3784000000000001</v>
+      </c>
+      <c r="AA53" s="45">
+        <f t="shared" si="26"/>
+        <v>102.18959999999998</v>
+      </c>
+      <c r="AB53" s="45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="45">
+        <f t="shared" si="26"/>
+        <v>102.18959999999998</v>
+      </c>
+      <c r="AD53" s="46">
+        <f t="shared" si="26"/>
+        <v>107.568</v>
+      </c>
+      <c r="AE53" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF53" s="45">
+        <f t="shared" si="24"/>
+        <v>5.3784000000000001</v>
+      </c>
+      <c r="AG53" s="45">
+        <f t="shared" si="24"/>
+        <v>102.18959999999998</v>
+      </c>
+      <c r="AH53" s="45">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="45">
+        <f t="shared" si="24"/>
+        <v>102.18959999999998</v>
+      </c>
+      <c r="AJ53" s="46">
+        <f t="shared" si="24"/>
+        <v>107.568</v>
+      </c>
+    </row>
+    <row r="54" spans="3:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T54" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U54" s="49">
+        <v>4776.0933024112992</v>
+      </c>
+      <c r="V54" s="49">
+        <v>-1823.2999138912996</v>
+      </c>
+      <c r="W54" s="49">
+        <v>3240</v>
+      </c>
+      <c r="X54" s="49">
+        <v>1476.1781485199999</v>
+      </c>
+      <c r="Y54" s="49">
+        <v>1763.8218514800001</v>
+      </c>
+      <c r="Z54" s="49">
+        <v>88.191092573999995</v>
+      </c>
+      <c r="AA54" s="49">
+        <v>1675.630758906</v>
+      </c>
+      <c r="AB54" s="49">
+        <v>1476.6152400000001</v>
+      </c>
+      <c r="AC54" s="49">
+        <v>199.0155189059999</v>
+      </c>
+      <c r="AD54" s="50">
+        <v>287.20661147999988</v>
+      </c>
+      <c r="AE54" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF54" s="49">
+        <f t="shared" si="24"/>
+        <v>88.191092573999995</v>
+      </c>
+      <c r="AG54" s="49">
+        <f t="shared" si="24"/>
+        <v>1675.630758906</v>
+      </c>
+      <c r="AH54" s="49">
+        <f t="shared" si="24"/>
+        <v>1476.6152400000001</v>
+      </c>
+      <c r="AI54" s="49">
+        <f t="shared" si="24"/>
+        <v>199.0155189059999</v>
+      </c>
+      <c r="AJ54" s="50">
+        <f t="shared" si="24"/>
+        <v>287.20661147999988</v>
+      </c>
+    </row>
+    <row r="58" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C58" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C59" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C60" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C61" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C62" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C63" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C64" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="53"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="53"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="53"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
